--- a/仕様開発メモ.xlsx
+++ b/仕様開発メモ.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\マイドライブ\Arduino_RaspberryPi\開発\棚ピカリ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113F2CF6-1272-46C5-A838-2BAA266850BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E426EDD-6F23-4540-8A00-FB0497CCFC1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{85175235-26BD-44F4-A921-1B7BFB0E4D4E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{85175235-26BD-44F4-A921-1B7BFB0E4D4E}"/>
   </bookViews>
   <sheets>
     <sheet name="データの流れ" sheetId="4" r:id="rId1"/>
     <sheet name="HW構成" sheetId="3" r:id="rId2"/>
-    <sheet name="HW通信仕様" sheetId="1" r:id="rId3"/>
-    <sheet name="送信側のマイコンのプログラムフロー" sheetId="2" r:id="rId4"/>
+    <sheet name="配線図" sheetId="5" r:id="rId3"/>
+    <sheet name="HW通信仕様" sheetId="1" r:id="rId4"/>
+    <sheet name="送信側のマイコンのプログラムフロー" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,11 +36,127 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="21">
   <si>
     <t>送信側のプログラム</t>
     <rPh sb="0" eb="3">
       <t>ソウシンガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上</t>
+    <rPh sb="0" eb="1">
+      <t>ウエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下</t>
+    <rPh sb="0" eb="1">
+      <t>シタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3V3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GND</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LED OUT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電源　IN</t>
+    <rPh sb="0" eb="2">
+      <t>デンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>信号(緑)</t>
+    <rPh sb="0" eb="2">
+      <t>シンゴウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ミドリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GND(白)</t>
+    <rPh sb="4" eb="5">
+      <t>シロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5V(赤)</t>
+    <rPh sb="3" eb="4">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GND(黒)</t>
+    <rPh sb="4" eb="5">
+      <t>クロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.m5stack.com/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左はM5Stack用プロトモジュール</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.switch-science.com/catalog/3650/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.switch-science.com/catalog/3647/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>m5stackにスタックしてコネクタ接続</t>
+    <rPh sb="18" eb="20">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5ｍ程度</t>
+    <rPh sb="2" eb="4">
+      <t>テイド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2ｍ程度</t>
+    <rPh sb="2" eb="4">
+      <t>テイド</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -48,7 +165,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,16 +179,111 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFC00000"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF00B050"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -79,18 +291,258 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5767,15 +6219,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>322386</xdr:colOff>
+      <xdr:colOff>322385</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>187569</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>556848</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>41034</xdr:rowOff>
+      <xdr:colOff>539260</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>11723</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5790,8 +6242,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="3112477" y="3382109"/>
-          <a:ext cx="1981204" cy="234462"/>
+          <a:off x="3215054" y="3279531"/>
+          <a:ext cx="1758462" cy="216875"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -5891,7 +6343,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>427892</xdr:colOff>
+      <xdr:colOff>527538</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>125524</xdr:rowOff>
     </xdr:to>
@@ -5908,8 +6360,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1453662" y="1672970"/>
-          <a:ext cx="2637692" cy="0"/>
+          <a:off x="1453662" y="3607278"/>
+          <a:ext cx="2737338" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6719,7 +7171,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>1000μF</a:t>
+            <a:t>100μF</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -6735,6 +7187,3497 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直線コネクタ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47D3278F-3B20-4CFF-AF59-7C538B77338A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1619250" y="650875"/>
+          <a:ext cx="1951038" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37E00871-0854-4793-9600-B28775916EEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3556000" y="863600"/>
+          <a:ext cx="2476500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>26985</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>223835</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="楕円 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{473DA6B3-9FDD-431F-8B74-6C4CCF90817B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3994148" y="536575"/>
+          <a:ext cx="196850" cy="565150"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>93662</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>73025</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>93662</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直線コネクタ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5C85340-6911-4979-AF70-1F84DC860AC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1609725" y="1436687"/>
+          <a:ext cx="1925638" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>96838</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>96838</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直線コネクタ 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7625424-3C49-4D6C-9045-D9C588B8EF62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1590675" y="1249363"/>
+          <a:ext cx="1695450" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>138112</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直線コネクタ 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E26EE068-D089-4DAD-BC52-67151B403FBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3071813" y="688975"/>
+          <a:ext cx="1033462" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直線コネクタ 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37C7AFFE-A5FA-43A8-B498-030C9E0EB7A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3065463" y="695325"/>
+          <a:ext cx="0" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>147638</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>96840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>77788</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>96840</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直線コネクタ 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB8E8F3D-F91A-43E0-B248-7BA6132646B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1614488" y="1630365"/>
+          <a:ext cx="1925638" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>115893</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>115893</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直線コネクタ 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4129740-475F-4275-8F9D-AA8C98BAFB9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3578231" y="854075"/>
+          <a:ext cx="0" cy="212725"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>126998</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>133354</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="コネクタ: カギ線 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7994B64-A4F9-419F-A49B-9878DD356FF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="5091114" y="3375023"/>
+          <a:ext cx="1281115" cy="158752"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -1673"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>404813</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>163512</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>490537</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>138113</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="吹き出し: 折線 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B64926D7-0031-44C4-B1FF-917C05FB2166}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1138238" y="2459037"/>
+          <a:ext cx="1552574" cy="736601"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 36908"/>
+            <a:gd name="adj2" fmla="val 102885"/>
+            <a:gd name="adj3" fmla="val 35794"/>
+            <a:gd name="adj4" fmla="val 127040"/>
+            <a:gd name="adj5" fmla="val -70636"/>
+            <a:gd name="adj6" fmla="val 166996"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>LED</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>に供給されるラインは軟銅線を太く</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Φ0.6mm</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>最大</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>5A)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>23814</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>239714</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>23816</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="3" name="グループ化 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBF3BACF-F10A-4F48-997F-6BCF4FCE9288}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4976814" y="2486034"/>
+          <a:ext cx="973138" cy="1166807"/>
+          <a:chOff x="4219575" y="1362076"/>
+          <a:chExt cx="973138" cy="1166807"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="59" name="グループ化 58">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37B84949-C732-405F-BA1D-1B7D27A943CB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm rot="16200000">
+            <a:off x="4122740" y="1458911"/>
+            <a:ext cx="1166807" cy="973138"/>
+            <a:chOff x="4313242" y="1708149"/>
+            <a:chExt cx="1166807" cy="977900"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="46" name="正方形/長方形 45">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CBC947D-6AD0-488A-8FCA-AB46205B29B6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4313242" y="1708149"/>
+              <a:ext cx="1166807" cy="977900"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="6350">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="47" name="楕円 46">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{214FE24C-2781-404B-8262-036ADDC4AA02}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5307015" y="1752595"/>
+              <a:ext cx="152400" cy="152400"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="6350"/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="48" name="楕円 47">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC529808-F380-4839-BFB5-7E43F0838558}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5124450" y="1752599"/>
+              <a:ext cx="152400" cy="152400"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="6350"/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="49" name="楕円 48">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{600D81E4-5302-4FA6-AD86-C1A8A765E097}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4926013" y="1752599"/>
+              <a:ext cx="152400" cy="152400"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln w="6350"/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="50" name="楕円 49">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4877A06-168F-4DDB-AE63-ECB296BB5469}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4727575" y="1752599"/>
+              <a:ext cx="152400" cy="152400"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln w="6350"/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="51" name="楕円 50">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBD1FE45-39DA-47E2-B3A0-94CF61043A82}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4530725" y="1752598"/>
+              <a:ext cx="152400" cy="152400"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="6350"/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="52" name="楕円 51">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66E0E896-FCDA-4E47-927C-8CFC7D981579}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4346575" y="1752599"/>
+              <a:ext cx="152400" cy="152400"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="6350"/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="53" name="楕円 52">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59F7699B-8E22-4C98-9B62-FC6F765C7B88}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5307015" y="2476500"/>
+              <a:ext cx="152400" cy="152400"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="6350"/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="54" name="楕円 53">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EA88E04-5290-426E-92C7-F8EAB74E3E98}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5124450" y="2476500"/>
+              <a:ext cx="152400" cy="152400"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="6350"/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="55" name="楕円 54">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01DC2F2F-5014-4B14-9F3B-BD851001ADA5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4926013" y="2476500"/>
+              <a:ext cx="152400" cy="152400"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln w="6350"/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="56" name="楕円 55">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E471B583-DB79-4149-9B26-941B399CC376}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4727575" y="2476500"/>
+              <a:ext cx="152400" cy="152400"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:ln w="6350"/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="57" name="楕円 56">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0785C3B-E596-442A-B7E4-BAA10F7E21EA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4530725" y="2476500"/>
+              <a:ext cx="152400" cy="152400"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="6350"/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="58" name="楕円 57">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5C889D2-9DA5-4469-828B-C7CED3AC1453}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4346575" y="2476500"/>
+              <a:ext cx="152400" cy="152400"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="6350"/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="60" name="テキスト ボックス 59">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA2FB239-B055-407E-AAB4-44A776C32641}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4806951" y="1974850"/>
+            <a:ext cx="236538" cy="177800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="6350" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>LV</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="61" name="テキスト ボックス 60">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89676DB1-DA60-4285-8943-9208884773DC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4649781" y="1674804"/>
+            <a:ext cx="303213" cy="177800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="6350" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>GND</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="62" name="テキスト ボックス 61">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD75330B-561E-4D8E-950F-D3F167BCE3E3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4430707" y="1970090"/>
+            <a:ext cx="303213" cy="177800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="6350" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>HV</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>147637</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>88901</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>88901</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直線コネクタ 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30652092-5D01-4CCB-BD30-1C8627498279}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5124450" y="2384426"/>
+          <a:ext cx="871538" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>96837</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>96837</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="直線コネクタ 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B092CBDC-C529-43F4-8B19-59E1A694E3A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1600200" y="868362"/>
+          <a:ext cx="1951038" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>109537</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>103188</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>109538</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>103188</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="直線コネクタ 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E94A9D37-6100-407E-8EB4-E0626D5C7BDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3571875" y="1446213"/>
+          <a:ext cx="252413" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="直線コネクタ 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41310FA9-A1EC-447C-A41F-1485D5D64FBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5862639" y="2955925"/>
+          <a:ext cx="871536" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>109538</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>80963</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="直線コネクタ 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{867137A2-7D64-402D-BEFC-64C8196E776F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3824288" y="2574925"/>
+          <a:ext cx="476250" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9528</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>3</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>109538</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="43" name="グループ化 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FA9BF3D-C6F5-4E18-865A-14B93EDE580F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4457703" y="2200275"/>
+          <a:ext cx="242888" cy="1157288"/>
+          <a:chOff x="3724275" y="1257300"/>
+          <a:chExt cx="242888" cy="1157288"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="68" name="直線コネクタ 67">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFFC5D63-29C6-4C08-AA91-8AED694561FA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3840163" y="1257300"/>
+            <a:ext cx="0" cy="1157288"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="34" name="正方形/長方形 33">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CECAF6A0-C1E5-4FC9-8BC5-F215295A46A2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3724275" y="1462079"/>
+            <a:ext cx="242888" cy="747713"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>214313</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>90488</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="73" name="直線コネクタ 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08401538-2D33-4509-A654-FBF7BEE80223}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4433888" y="2232024"/>
+          <a:ext cx="633413" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>95248</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="吹き出し: 折線 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5C9275E-5AEB-4150-B1C5-0FBB67059A3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7781924" y="3890963"/>
+          <a:ext cx="1257299" cy="500061"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 52202"/>
+            <a:gd name="adj2" fmla="val -8100"/>
+            <a:gd name="adj3" fmla="val 51690"/>
+            <a:gd name="adj4" fmla="val -48228"/>
+            <a:gd name="adj5" fmla="val 21607"/>
+            <a:gd name="adj6" fmla="val -65547"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>AWG26</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>以上で</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>OK</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　黒</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>225426</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>225426</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="85" name="直線コネクタ 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46CEC571-67B8-4FB9-AB2E-C608EBED982A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4445001" y="1747838"/>
+          <a:ext cx="0" cy="481012"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>357190</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="吹き出し: 折線 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60EEBE4C-616D-4D17-AACB-C9647C0796D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="790575" y="3362325"/>
+          <a:ext cx="1766890" cy="952499"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 36908"/>
+            <a:gd name="adj2" fmla="val 102885"/>
+            <a:gd name="adj3" fmla="val 30261"/>
+            <a:gd name="adj4" fmla="val 135129"/>
+            <a:gd name="adj5" fmla="val -95234"/>
+            <a:gd name="adj6" fmla="val 198231"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>マイコンは</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>200mA</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>程度なので</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>軟銅線の太さは</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Φ0.4mm(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>最大</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2.2A)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>以上であれば</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>OK</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>77788</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>77788</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="109" name="直線コネクタ 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0355D0CA-F897-4ABE-B589-C4D0EBF65AE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5054601" y="1785938"/>
+          <a:ext cx="0" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>130175</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>130174</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>130175</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="112" name="直線コネクタ 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B30728C-DE5A-4846-8FD5-681335CF8930}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4097338" y="901699"/>
+          <a:ext cx="0" cy="1512889"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>138111</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>117477</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>117477</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="114" name="直線コネクタ 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA697035-6C47-40F5-8C09-55D99EC323A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4105274" y="2413002"/>
+          <a:ext cx="247650" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>103188</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>90487</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>103188</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="117" name="直線コネクタ 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAB2FC27-1B7C-4DB4-B6FB-B3457BE32430}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3595688" y="2779713"/>
+          <a:ext cx="1471612" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>106363</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>92074</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>106363</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="123" name="直線コネクタ 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42AE3A59-C2EB-433F-8788-46898B4065C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5816601" y="3149599"/>
+          <a:ext cx="0" cy="774701"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>144462</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>144462</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="127" name="直線コネクタ 126">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBB575AA-250D-4C6D-A9DC-91A977C1609C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3606800" y="1635124"/>
+          <a:ext cx="0" cy="1160464"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>120649</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="151" name="直線コネクタ 150">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5904DC7D-7515-46C6-8867-50B723F6CB24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4611688" y="2225674"/>
+          <a:ext cx="0" cy="579439"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>166690</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>185738</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="吹き出し: 折線 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A31B4C1E-C63C-4608-AF08-0B1FB1C67788}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2619378" y="3149600"/>
+          <a:ext cx="776285" cy="546100"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 36908"/>
+            <a:gd name="adj2" fmla="val 102885"/>
+            <a:gd name="adj3" fmla="val 15733"/>
+            <a:gd name="adj4" fmla="val 120068"/>
+            <a:gd name="adj5" fmla="val -146995"/>
+            <a:gd name="adj6" fmla="val 148560"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>抵抗</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>220Ω</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>赤赤黒黒</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D04AD87F-D525-4BFE-AF46-B608A7E9CE8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1609724" y="2133599"/>
+          <a:ext cx="685800" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>コネクタ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>23818</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>100017</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>233368</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>109542</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="テキスト ボックス 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E00B9B2-9245-4867-A3AE-F4DE9FC51EB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3457580" y="1914530"/>
+          <a:ext cx="771525" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>抵抗 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>220Ω</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="直線コネクタ 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62CAD21F-868D-4DDC-A2A2-D59ACB137C4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3276600" y="1054100"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>685801</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EB9BA79-A5DA-4E06-841B-F67C03298BB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2152651" y="1171576"/>
+          <a:ext cx="190500" cy="557212"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>204787</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>671515</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>147639</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="吹き出し: 折線 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F8AB95A-F081-46A7-B578-CA65D627CF4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="204787" y="228601"/>
+          <a:ext cx="1933578" cy="500063"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 36908"/>
+            <a:gd name="adj2" fmla="val 102885"/>
+            <a:gd name="adj3" fmla="val 37238"/>
+            <a:gd name="adj4" fmla="val 116153"/>
+            <a:gd name="adj5" fmla="val 148749"/>
+            <a:gd name="adj6" fmla="val 133014"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>AWG20(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>最大</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>11A)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>ノイズを防ぐためツイストして接続</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>681039</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="テキスト ボックス 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17BB4C22-63B9-48F1-AE41-93E05D6844E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2147889" y="514349"/>
+          <a:ext cx="804862" cy="481013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ケースから</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>400mm</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57152</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="テキスト ボックス 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2BA70D8-AD94-4823-A049-24638CD5F238}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2286000" y="1971677"/>
+          <a:ext cx="866774" cy="471485"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ケースから</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>70mm</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>652463</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9CD64AA-45B1-45C4-A43E-976F1CFAB262}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7210425" y="714375"/>
+          <a:ext cx="919163" cy="338138"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>685801</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="正方形/長方形 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{162E4BEA-9AD5-40DA-8DCE-DDCFB32CD372}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2152651" y="990601"/>
+          <a:ext cx="190500" cy="371474"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>42862</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>109538</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="テキスト ボックス 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F0175B2-99A3-40D9-BB57-E14B2AF76BD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4948238" y="781050"/>
+          <a:ext cx="804862" cy="481013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>キャパシタ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>〇〇</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>μF</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="テキスト ボックス 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE5C0ECD-A75E-4014-B3F2-82B5AE3F5F26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4948237" y="1576388"/>
+          <a:ext cx="1000126" cy="519113"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>レベル変換</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>コンバータ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28573</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>119061</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="吹き出し: 折線 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4C36F0D-BC3C-4DD4-A8DE-918A155297AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3719511" y="381000"/>
+          <a:ext cx="1085851" cy="500061"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 52202"/>
+            <a:gd name="adj2" fmla="val -8100"/>
+            <a:gd name="adj3" fmla="val 53595"/>
+            <a:gd name="adj4" fmla="val -27614"/>
+            <a:gd name="adj5" fmla="val 192084"/>
+            <a:gd name="adj6" fmla="val -71209"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ルータで穴あけ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>加工</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8839,7 +12782,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -16779,9 +20722,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC9BE132-0351-48BB-93B2-896F2E3F1FA4}">
-  <dimension ref="A1:U32"/>
+  <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -16791,38 +20734,31 @@
     <col min="22" max="16384" width="8.7265625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="20" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="21" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="23" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="24" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="25" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="26" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="27" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="28" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="29" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="30" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="31" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="32" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1" x14ac:dyDescent="0.3"/>
+    <row r="2" x14ac:dyDescent="0.3"/>
+    <row r="3" x14ac:dyDescent="0.3"/>
+    <row r="4" x14ac:dyDescent="0.3"/>
+    <row r="5" x14ac:dyDescent="0.3"/>
+    <row r="6" x14ac:dyDescent="0.3"/>
+    <row r="7" x14ac:dyDescent="0.3"/>
+    <row r="8" x14ac:dyDescent="0.3"/>
+    <row r="9" x14ac:dyDescent="0.3"/>
+    <row r="10" x14ac:dyDescent="0.3"/>
+    <row r="11" x14ac:dyDescent="0.3"/>
+    <row r="12" x14ac:dyDescent="0.3"/>
+    <row r="13" x14ac:dyDescent="0.3"/>
+    <row r="14" x14ac:dyDescent="0.3"/>
+    <row r="15" x14ac:dyDescent="0.3"/>
+    <row r="16" x14ac:dyDescent="0.3"/>
+    <row r="17" x14ac:dyDescent="0.3"/>
+    <row r="18" x14ac:dyDescent="0.3"/>
+    <row r="19" x14ac:dyDescent="0.3"/>
+    <row r="20" x14ac:dyDescent="0.3"/>
+    <row r="21" x14ac:dyDescent="0.3"/>
+    <row r="22" x14ac:dyDescent="0.3"/>
+    <row r="23" x14ac:dyDescent="0.3"/>
+    <row r="24" x14ac:dyDescent="0.3"/>
+    <row r="25" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16832,10 +20768,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8675A9A-4AAE-46D2-916A-36F288EB7F5C}">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:S1"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -16843,18 +20779,7 @@
     <col min="1" max="19" width="8.7265625" customWidth="1"/>
     <col min="20" max="16384" width="8.7265625" hidden="1"/>
   </cols>
-  <sheetData>
-    <row r="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" customFormat="1" x14ac:dyDescent="0.3"/>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16862,6 +20787,556 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23F53282-8A9B-45B2-ACCD-40F8FEBA7EF3}">
+  <dimension ref="A5:X25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="W19" sqref="W19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="4" width="8.7265625" style="2"/>
+    <col min="5" max="22" width="3" style="2" customWidth="1"/>
+    <col min="23" max="16384" width="8.7265625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:24" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="E6" s="3"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="8"/>
+      <c r="X6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="E7" s="9"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="14"/>
+      <c r="X7" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="16"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="U8" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="V8" s="17"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="16"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="V9" s="17"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="E10" s="16"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="U10" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="V10" s="17"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="16"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="U11" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="V11" s="17"/>
+      <c r="X11" s="25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="U12" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="V12" s="17"/>
+      <c r="X12" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="16"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="U13" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="V13" s="17"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="E14" s="16"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="U14" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="V14" s="17"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="E15" s="16"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="U15" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="V15" s="17"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="E16" s="16"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="U16" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="V16" s="17"/>
+    </row>
+    <row r="17" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="E17" s="16"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="U17" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="V17" s="17"/>
+    </row>
+    <row r="18" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="E18" s="16"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="33">
+        <v>26</v>
+      </c>
+      <c r="U18" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="V18" s="17"/>
+    </row>
+    <row r="19" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="E19" s="16"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="U19" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="V19" s="17"/>
+    </row>
+    <row r="20" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="E20" s="16"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="U20" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="V20" s="17"/>
+    </row>
+    <row r="21" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="E21" s="16"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="U21" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="V21" s="17"/>
+    </row>
+    <row r="22" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="E22" s="16"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="U22" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="V22" s="17"/>
+    </row>
+    <row r="23" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="E23" s="9"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="14"/>
+    </row>
+    <row r="24" spans="5:22" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E24" s="19"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="23"/>
+      <c r="V24" s="24"/>
+    </row>
+    <row r="25" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="M25" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="X7" r:id="rId1" xr:uid="{75363AA8-FE4E-4AD4-A346-8A84EAD48D7A}"/>
+    <hyperlink ref="X12" r:id="rId2" xr:uid="{44E93EE6-EDB9-499D-9E70-48D0FD0F5815}"/>
+    <hyperlink ref="X8" r:id="rId3" xr:uid="{CF86257E-BCB1-4378-AAFE-9279293F1125}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F643F38-C780-47EA-BFB6-6AD8F86571FC}">
   <dimension ref="A1:O45"/>
   <sheetViews>
@@ -16928,7 +21403,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B0EFDE-DD4A-4069-924D-12F4F578AE0F}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/仕様開発メモ.xlsx
+++ b/仕様開発メモ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\マイドライブ\Arduino_RaspberryPi\開発\棚ピカリ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E426EDD-6F23-4540-8A00-FB0497CCFC1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833EFD83-502C-4D50-B83C-AC4B2CFBAADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{85175235-26BD-44F4-A921-1B7BFB0E4D4E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="22">
   <si>
     <t>送信側のプログラム</t>
     <rPh sb="0" eb="3">
@@ -60,10 +60,6 @@
     <rPh sb="0" eb="1">
       <t>シタ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3V3</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -160,12 +156,22 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ESP32　DevCの配線</t>
+    <rPh sb="11" eb="13">
+      <t>ハイセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,14 +197,6 @@
       <b/>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FFC00000"/>
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
@@ -256,6 +254,26 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -283,7 +301,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -422,95 +440,124 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -531,13 +578,52 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -547,6 +633,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF4472C4"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -5661,234 +5752,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>58616</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>263768</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>52755</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="フローチャート: 処理 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23EB8E4E-DFC7-47DC-A9E3-DD19F6070652}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2274276" y="2186354"/>
-          <a:ext cx="920261" cy="961293"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>レベルコンバータ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>246185</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>20016</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>709246</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>20016</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="直線矢印コネクタ 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{307D0EB4-579C-43D0-AAE0-400C234ED20A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3176954" y="2728047"/>
-          <a:ext cx="1195754" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="none"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>463061</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>46892</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>66823</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>504092</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>175846</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="フローチャート: 処理 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0B0889E-9F61-4552-A06A-FD16485DAA16}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3393830" y="2581423"/>
-          <a:ext cx="773724" cy="302454"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>220Ω</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>抵抗</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>726831</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:rowOff>70338</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>703388</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>17584</xdr:rowOff>
+      <xdr:colOff>703389</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76198</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5902,13 +5775,13 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="4390293" y="2590799"/>
-          <a:ext cx="2174633" cy="134816"/>
+        <a:xfrm rot="10800000">
+          <a:off x="1512277" y="4519246"/>
+          <a:ext cx="5052650" cy="5860"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 84501"/>
+            <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="9525">
@@ -5938,8 +5811,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>298939</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>193430</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>119661</xdr:rowOff>
     </xdr:from>
@@ -5962,8 +5835,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3229708" y="2440830"/>
-          <a:ext cx="3363260" cy="0"/>
+          <a:off x="3856892" y="4375138"/>
+          <a:ext cx="2736076" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5994,8 +5867,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>298939</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>521676</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>2431</xdr:rowOff>
     </xdr:from>
@@ -6018,8 +5891,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3229708" y="2323600"/>
-          <a:ext cx="3363260" cy="0"/>
+          <a:off x="4185138" y="4257908"/>
+          <a:ext cx="2407830" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6027,174 +5900,6 @@
         <a:ln>
           <a:solidFill>
             <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="none"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>720970</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>2431</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>93785</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>2431</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="38" name="直線矢印コネクタ 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{732A3920-DA51-4414-9B13-709F162B6CFB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1453662" y="2323600"/>
-          <a:ext cx="838200" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="none"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>720970</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>137244</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>93785</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>137244</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="40" name="直線矢印コネクタ 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DD45639-3311-4649-8FFD-91F8671ED6D9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1453662" y="2458413"/>
-          <a:ext cx="838200" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="none"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>720970</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>43461</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>93785</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>43461</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="41" name="直線矢印コネクタ 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36213A58-D85C-49F0-8313-EDF629197DDF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1453662" y="2751492"/>
-          <a:ext cx="838200" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="00B050"/>
           </a:solidFill>
           <a:tailEnd type="none"/>
         </a:ln>
@@ -6444,78 +6149,6 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>46892</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>709245</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>93785</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="テキスト ボックス 59">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F76D6D31-5641-4A98-B23A-66E7388D28F9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1512277" y="2086708"/>
-          <a:ext cx="662353" cy="328246"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>3.3V</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -6806,7 +6439,7 @@
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>3.3V</a:t>
+            <a:t>GND</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7859,894 +7492,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>23814</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>9</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>239714</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>23816</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="3" name="グループ化 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBF3BACF-F10A-4F48-997F-6BCF4FCE9288}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="4976814" y="2486034"/>
-          <a:ext cx="973138" cy="1166807"/>
-          <a:chOff x="4219575" y="1362076"/>
-          <a:chExt cx="973138" cy="1166807"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="59" name="グループ化 58">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37B84949-C732-405F-BA1D-1B7D27A943CB}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm rot="16200000">
-            <a:off x="4122740" y="1458911"/>
-            <a:ext cx="1166807" cy="973138"/>
-            <a:chOff x="4313242" y="1708149"/>
-            <a:chExt cx="1166807" cy="977900"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="46" name="正方形/長方形 45">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CBC947D-6AD0-488A-8FCA-AB46205B29B6}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4313242" y="1708149"/>
-              <a:ext cx="1166807" cy="977900"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="40000"/>
-                <a:lumOff val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="6350">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="47" name="楕円 46">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{214FE24C-2781-404B-8262-036ADDC4AA02}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5307015" y="1752595"/>
-              <a:ext cx="152400" cy="152400"/>
-            </a:xfrm>
-            <a:prstGeom prst="ellipse">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln w="6350"/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="48" name="楕円 47">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC529808-F380-4839-BFB5-7E43F0838558}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5124450" y="1752599"/>
-              <a:ext cx="152400" cy="152400"/>
-            </a:xfrm>
-            <a:prstGeom prst="ellipse">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln w="6350"/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="49" name="楕円 48">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{600D81E4-5302-4FA6-AD86-C1A8A765E097}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4926013" y="1752599"/>
-              <a:ext cx="152400" cy="152400"/>
-            </a:xfrm>
-            <a:prstGeom prst="ellipse">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:ln w="6350"/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="50" name="楕円 49">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4877A06-168F-4DDB-AE63-ECB296BB5469}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4727575" y="1752599"/>
-              <a:ext cx="152400" cy="152400"/>
-            </a:xfrm>
-            <a:prstGeom prst="ellipse">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:ln w="6350"/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="51" name="楕円 50">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBD1FE45-39DA-47E2-B3A0-94CF61043A82}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4530725" y="1752598"/>
-              <a:ext cx="152400" cy="152400"/>
-            </a:xfrm>
-            <a:prstGeom prst="ellipse">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln w="6350"/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="52" name="楕円 51">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66E0E896-FCDA-4E47-927C-8CFC7D981579}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4346575" y="1752599"/>
-              <a:ext cx="152400" cy="152400"/>
-            </a:xfrm>
-            <a:prstGeom prst="ellipse">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln w="6350"/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="53" name="楕円 52">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59F7699B-8E22-4C98-9B62-FC6F765C7B88}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5307015" y="2476500"/>
-              <a:ext cx="152400" cy="152400"/>
-            </a:xfrm>
-            <a:prstGeom prst="ellipse">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln w="6350"/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="54" name="楕円 53">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EA88E04-5290-426E-92C7-F8EAB74E3E98}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5124450" y="2476500"/>
-              <a:ext cx="152400" cy="152400"/>
-            </a:xfrm>
-            <a:prstGeom prst="ellipse">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln w="6350"/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="55" name="楕円 54">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01DC2F2F-5014-4B14-9F3B-BD851001ADA5}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4926013" y="2476500"/>
-              <a:ext cx="152400" cy="152400"/>
-            </a:xfrm>
-            <a:prstGeom prst="ellipse">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:ln w="6350"/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="56" name="楕円 55">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E471B583-DB79-4149-9B26-941B399CC376}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4727575" y="2476500"/>
-              <a:ext cx="152400" cy="152400"/>
-            </a:xfrm>
-            <a:prstGeom prst="ellipse">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="C00000"/>
-            </a:solidFill>
-            <a:ln w="6350"/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:srgbClr val="C00000"/>
-                </a:solidFill>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="57" name="楕円 56">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0785C3B-E596-442A-B7E4-BAA10F7E21EA}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4530725" y="2476500"/>
-              <a:ext cx="152400" cy="152400"/>
-            </a:xfrm>
-            <a:prstGeom prst="ellipse">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln w="6350"/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="58" name="楕円 57">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5C889D2-9DA5-4469-828B-C7CED3AC1453}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4346575" y="2476500"/>
-              <a:ext cx="152400" cy="152400"/>
-            </a:xfrm>
-            <a:prstGeom prst="ellipse">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln w="6350"/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="60" name="テキスト ボックス 59">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA2FB239-B055-407E-AAB4-44A776C32641}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4806951" y="1974850"/>
-            <a:ext cx="236538" cy="177800"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="6350" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>LV</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="61" name="テキスト ボックス 60">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89676DB1-DA60-4285-8943-9208884773DC}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4649781" y="1674804"/>
-            <a:ext cx="303213" cy="177800"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="6350" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>GND</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="62" name="テキスト ボックス 61">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD75330B-561E-4D8E-950F-D3F167BCE3E3}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4430707" y="1970090"/>
-            <a:ext cx="303213" cy="177800"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="6350" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>HV</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>147637</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>88901</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>88901</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="直線コネクタ 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30652092-5D01-4CCB-BD30-1C8627498279}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5124450" y="2384426"/>
-          <a:ext cx="871538" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
       <xdr:row>8</xdr:row>
@@ -8799,64 +7544,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>109537</xdr:colOff>
+      <xdr:colOff>119062</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>103188</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>109538</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>103188</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="65" name="直線コネクタ 64">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E94A9D37-6100-407E-8EB4-E0626D5C7BDB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3571875" y="1446213"/>
-          <a:ext cx="252413" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
@@ -8877,244 +7567,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5862639" y="2955925"/>
-          <a:ext cx="871536" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>109538</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>80963</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="67" name="直線コネクタ 66">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{867137A2-7D64-402D-BEFC-64C8196E776F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3824288" y="2574925"/>
-          <a:ext cx="476250" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>9528</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>3</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>109538</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="43" name="グループ化 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FA9BF3D-C6F5-4E18-865A-14B93EDE580F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="4457703" y="2200275"/>
-          <a:ext cx="242888" cy="1157288"/>
-          <a:chOff x="3724275" y="1257300"/>
-          <a:chExt cx="242888" cy="1157288"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="68" name="直線コネクタ 67">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFFC5D63-29C6-4C08-AA91-8AED694561FA}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3840163" y="1257300"/>
-            <a:ext cx="0" cy="1157288"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="25400">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="34" name="正方形/長方形 33">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CECAF6A0-C1E5-4FC9-8BC5-F215295A46A2}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3724275" y="1462079"/>
-            <a:ext cx="242888" cy="747713"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent5">
-              <a:lumMod val="60000"/>
-              <a:lumOff val="40000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>214313</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>126999</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>90488</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>126999</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="73" name="直線コネクタ 72">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08401538-2D33-4509-A654-FBF7BEE80223}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4433888" y="2232024"/>
-          <a:ext cx="633413" cy="0"/>
+          <a:off x="4314825" y="2200275"/>
+          <a:ext cx="2419350" cy="1136650"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -9227,61 +7681,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>225426</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>23813</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>225426</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="85" name="直線コネクタ 84">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46CEC571-67B8-4FB9-AB2E-C608EBED982A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4445001" y="1747838"/>
-          <a:ext cx="0" cy="481012"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>19</xdr:row>
@@ -9396,230 +7795,10 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>77788</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>61913</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>77788</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>147638</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="109" name="直線コネクタ 108">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0355D0CA-F897-4ABE-B589-C4D0EBF65AE1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5054601" y="1785938"/>
-          <a:ext cx="0" cy="466725"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>130175</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>130174</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>130175</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="112" name="直線コネクタ 111">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B30728C-DE5A-4846-8FD5-681335CF8930}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4097338" y="901699"/>
-          <a:ext cx="0" cy="1512889"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>138111</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>117477</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>133349</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>117477</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="114" name="直線コネクタ 113">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA697035-6C47-40F5-8C09-55D99EC323A9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4105274" y="2413002"/>
-          <a:ext cx="247650" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>103188</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>90487</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>103188</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="117" name="直線コネクタ 116">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAB2FC27-1B7C-4DB4-B6FB-B3457BE32430}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3595688" y="2779713"/>
-          <a:ext cx="1471612" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>106363</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>92074</xdr:rowOff>
+      <xdr:colOff>128587</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
@@ -9640,8 +7819,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5816601" y="3149599"/>
-          <a:ext cx="0" cy="774701"/>
+          <a:off x="4324350" y="2409825"/>
+          <a:ext cx="1492251" cy="1895475"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -9667,198 +7846,6 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>144462</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>101599</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>144462</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="127" name="直線コネクタ 126">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBB575AA-250D-4C6D-A9DC-91A977C1609C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3606800" y="1635124"/>
-          <a:ext cx="0" cy="1160464"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>120649</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>128588</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="151" name="直線コネクタ 150">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5904DC7D-7515-46C6-8867-50B723F6CB24}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4611688" y="2225674"/>
-          <a:ext cx="0" cy="579439"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>166690</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>92075</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>185738</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="69" name="吹き出し: 折線 68">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A31B4C1E-C63C-4608-AF08-0B1FB1C67788}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2619378" y="3149600"/>
-          <a:ext cx="776285" cy="546100"/>
-        </a:xfrm>
-        <a:prstGeom prst="borderCallout2">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 36908"/>
-            <a:gd name="adj2" fmla="val 102885"/>
-            <a:gd name="adj3" fmla="val 15733"/>
-            <a:gd name="adj4" fmla="val 120068"/>
-            <a:gd name="adj5" fmla="val -146995"/>
-            <a:gd name="adj6" fmla="val 148560"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>抵抗</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>220Ω</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>赤赤黒黒</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -9927,75 +7914,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>23818</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>100017</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>233368</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>109542</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="70" name="テキスト ボックス 69">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E00B9B2-9245-4867-A3AE-F4DE9FC51EB9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="3457580" y="1914530"/>
-          <a:ext cx="771525" cy="209550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>抵抗 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>220Ω</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
       <xdr:row>9</xdr:row>
@@ -10109,14 +8027,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>204787</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>90489</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>671515</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>147639</xdr:rowOff>
+      <xdr:rowOff>147640</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10131,8 +8049,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="204787" y="228601"/>
-          <a:ext cx="1933578" cy="500063"/>
+          <a:off x="204787" y="471489"/>
+          <a:ext cx="1933578" cy="638176"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout2">
           <a:avLst>
@@ -10183,7 +8101,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
-            <a:t>ノイズを防ぐためツイストして接続</a:t>
+            <a:t>ノイズを防ぐためツイストもしくは接続平行線を使う</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
         </a:p>
@@ -10525,78 +8443,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>247649</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>42863</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="82" name="テキスト ボックス 81">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE5C0ECD-A75E-4014-B3F2-82B5AE3F5F26}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4948237" y="1576388"/>
-          <a:ext cx="1000126" cy="519113"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>レベル変換</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>コンバータ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>28573</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -10669,6 +8515,766 @@
             <a:t>加工</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>252411</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>233362</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="8" name="グループ化 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EB89961-69DA-4966-AF91-715C3CEB0807}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4448174" y="6129337"/>
+          <a:ext cx="2757488" cy="3981450"/>
+          <a:chOff x="4710113" y="6124575"/>
+          <a:chExt cx="2757488" cy="3981450"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="正方形/長方形 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43389C47-A71F-4FF2-BC18-2B606FDCC49F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4710113" y="6500811"/>
+            <a:ext cx="2757488" cy="3605213"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="4472C4">
+              <a:alpha val="30196"/>
+            </a:srgbClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="72" name="正方形/長方形 71">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F909E6A-AE5D-420C-B1F2-20BBC9309BA7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5205412" y="6124575"/>
+            <a:ext cx="1747838" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="75" name="正方形/長方形 74">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0219C0DC-791B-4EAF-BD70-9C22A07C7226}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5695950" y="9734550"/>
+            <a:ext cx="771525" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="77" name="正方形/長方形 76">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5F70E5D-92A6-4F1C-9888-6A25EF48E713}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5053013" y="9553575"/>
+            <a:ext cx="285752" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="84" name="正方形/長方形 83">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAB9FA57-72F8-4790-9B51-503111827C37}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6829426" y="9553575"/>
+            <a:ext cx="285752" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>157136</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>114298</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>61886</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>90486</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="楕円 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91604E22-E345-4F0F-B3C8-C0A711570F58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4857724" y="9658348"/>
+          <a:ext cx="157162" cy="166688"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>161899</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>114298</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>66648</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>90486</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="楕円 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{799CD9EF-50F6-4789-84E8-6075E1CDAE5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6629374" y="9658348"/>
+          <a:ext cx="157162" cy="166688"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>138112</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="87" name="直線コネクタ 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20BAC2D3-7920-4342-B112-70D6A5A5DACD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3067050" y="7005638"/>
+          <a:ext cx="4762" cy="2105024"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="89" name="直線コネクタ 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9CF2120-12B9-4C16-B831-FD5054996089}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3305175" y="7005638"/>
+          <a:ext cx="4762" cy="2105024"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>109538</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="90" name="直線コネクタ 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E9B52BA-5A08-4D7F-835B-01E20774A87A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3548063" y="7005638"/>
+          <a:ext cx="4762" cy="2105024"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>109537</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="91" name="直線コネクタ 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62C9FDAB-99E5-4B6E-921C-2132C1CCB0A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3795713" y="7005638"/>
+          <a:ext cx="4762" cy="2105024"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>128588</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="92" name="直線コネクタ 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{793C2D95-BBD1-402B-B094-94E536FF8184}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4067176" y="7005638"/>
+          <a:ext cx="4762" cy="2105024"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>83345</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>126207</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>135732</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>126207</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="正方形/長方形 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C556595C-8409-420C-B20F-A491AE53237F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3705226" y="6629401"/>
+          <a:ext cx="190500" cy="557212"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>133352</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>185737</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>133352</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="正方形/長方形 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ED74F40-F6D7-4204-859D-96022153452C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3090863" y="6729415"/>
+          <a:ext cx="190500" cy="371474"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -20771,7 +19377,7 @@
   <dimension ref="A1:S1"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -20788,10 +19394,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23F53282-8A9B-45B2-ACCD-40F8FEBA7EF3}">
-  <dimension ref="A5:X25"/>
+  <dimension ref="A2:X53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="W19" sqref="W19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -20801,6 +19407,11 @@
     <col min="23" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="5" spans="1:24" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M5" s="2" t="s">
         <v>3</v>
@@ -20826,7 +19437,7 @@
       <c r="U6" s="7"/>
       <c r="V6" s="8"/>
       <c r="X6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
@@ -20849,18 +19460,18 @@
       <c r="U7" s="13"/>
       <c r="V7" s="14"/>
       <c r="X7" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="16"/>
       <c r="F8" s="12"/>
@@ -20868,11 +19479,11 @@
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K8" s="12"/>
       <c r="L8" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
@@ -20890,15 +19501,15 @@
       <c r="V8" s="17"/>
       <c r="W8" s="26"/>
       <c r="X8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" s="16"/>
       <c r="F9" s="12"/>
@@ -20906,11 +19517,11 @@
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K9" s="12"/>
       <c r="L9" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M9" s="12"/>
       <c r="N9" s="12"/>
@@ -20920,7 +19531,7 @@
       <c r="R9" s="12"/>
       <c r="S9" s="13"/>
       <c r="T9" s="29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U9" s="30" t="s">
         <v>1</v>
@@ -20934,7 +19545,7 @@
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
@@ -20955,13 +19566,13 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" s="16"/>
       <c r="F11" s="12"/>
@@ -20986,15 +19597,15 @@
       </c>
       <c r="V11" s="17"/>
       <c r="X11" s="25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12" s="16"/>
       <c r="F12" s="12"/>
@@ -21002,11 +19613,9 @@
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
-      <c r="K12" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="K12" s="12"/>
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
       <c r="N12" s="12"/>
@@ -21023,25 +19632,25 @@
       </c>
       <c r="V12" s="17"/>
       <c r="X12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" s="16"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
@@ -21132,7 +19741,7 @@
       </c>
       <c r="V16" s="17"/>
     </row>
-    <row r="17" spans="5:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="E17" s="16"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
@@ -21148,24 +19757,22 @@
       <c r="Q17" s="12"/>
       <c r="R17" s="12"/>
       <c r="S17" s="13"/>
-      <c r="T17" s="32" t="s">
-        <v>4</v>
+      <c r="T17" s="31" t="s">
+        <v>1</v>
       </c>
       <c r="U17" s="30" t="s">
         <v>1</v>
       </c>
       <c r="V17" s="17"/>
     </row>
-    <row r="18" spans="5:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="E18" s="16"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
-      <c r="K18" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="K18" s="12"/>
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
       <c r="N18" s="12"/>
@@ -21174,7 +19781,7 @@
       <c r="Q18" s="12"/>
       <c r="R18" s="12"/>
       <c r="S18" s="13"/>
-      <c r="T18" s="33">
+      <c r="T18" s="32">
         <v>26</v>
       </c>
       <c r="U18" s="30" t="s">
@@ -21182,7 +19789,7 @@
       </c>
       <c r="V18" s="17"/>
     </row>
-    <row r="19" spans="5:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="E19" s="16"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
@@ -21206,7 +19813,7 @@
       </c>
       <c r="V19" s="17"/>
     </row>
-    <row r="20" spans="5:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="E20" s="16"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
@@ -21225,12 +19832,12 @@
       <c r="T20" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="U20" s="35" t="s">
-        <v>6</v>
+      <c r="U20" s="34" t="s">
+        <v>5</v>
       </c>
       <c r="V20" s="17"/>
     </row>
-    <row r="21" spans="5:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="E21" s="16"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
@@ -21249,12 +19856,12 @@
       <c r="T21" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="U21" s="35" t="s">
-        <v>6</v>
+      <c r="U21" s="34" t="s">
+        <v>5</v>
       </c>
       <c r="V21" s="17"/>
     </row>
-    <row r="22" spans="5:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="E22" s="16"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
@@ -21270,15 +19877,15 @@
       <c r="Q22" s="12"/>
       <c r="R22" s="12"/>
       <c r="S22" s="13"/>
-      <c r="T22" s="34" t="s">
+      <c r="T22" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="U22" s="35" t="s">
-        <v>6</v>
+      <c r="U22" s="34" t="s">
+        <v>5</v>
       </c>
       <c r="V22" s="17"/>
     </row>
-    <row r="23" spans="5:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="E23" s="9"/>
       <c r="F23" s="10"/>
       <c r="G23" s="11"/>
@@ -21298,7 +19905,7 @@
       <c r="U23" s="13"/>
       <c r="V23" s="14"/>
     </row>
-    <row r="24" spans="5:22" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:22" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E24" s="19"/>
       <c r="F24" s="20"/>
       <c r="G24" s="21"/>
@@ -21318,10 +19925,569 @@
       <c r="U24" s="23"/>
       <c r="V24" s="24"/>
     </row>
-    <row r="25" spans="5:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="M25" s="2" t="s">
         <v>2</v>
       </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="35"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="36"/>
+      <c r="R30" s="36"/>
+      <c r="S30" s="36"/>
+      <c r="T30" s="36"/>
+      <c r="U30" s="36"/>
+      <c r="V30" s="37"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="E31" s="38"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="39"/>
+      <c r="R31" s="39"/>
+      <c r="S31" s="39"/>
+      <c r="T31" s="39"/>
+      <c r="U31" s="39"/>
+      <c r="V31" s="40"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="E32" s="38"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="39"/>
+      <c r="R32" s="39"/>
+      <c r="S32" s="39"/>
+      <c r="T32" s="39"/>
+      <c r="U32" s="39"/>
+      <c r="V32" s="40"/>
+    </row>
+    <row r="33" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="E33" s="38"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="39"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="39"/>
+      <c r="R33" s="39"/>
+      <c r="S33" s="39"/>
+      <c r="T33" s="39"/>
+      <c r="U33" s="39"/>
+      <c r="V33" s="40"/>
+    </row>
+    <row r="34" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="E34" s="38"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="39"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="39"/>
+      <c r="Q34" s="39"/>
+      <c r="R34" s="39"/>
+      <c r="S34" s="39"/>
+      <c r="T34" s="39"/>
+      <c r="U34" s="39"/>
+      <c r="V34" s="40"/>
+    </row>
+    <row r="35" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="E35" s="38"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="V35" s="40"/>
+    </row>
+    <row r="36" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="E36" s="38"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="V36" s="40"/>
+    </row>
+    <row r="37" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="E37" s="38"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="V37" s="40"/>
+    </row>
+    <row r="38" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="E38" s="38"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="V38" s="40"/>
+    </row>
+    <row r="39" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="E39" s="38"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="39"/>
+      <c r="K39" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="V39" s="40"/>
+    </row>
+    <row r="40" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="E40" s="38"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="39"/>
+      <c r="K40" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="V40" s="40"/>
+    </row>
+    <row r="41" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="E41" s="38"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="V41" s="40"/>
+    </row>
+    <row r="42" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="E42" s="38"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="39"/>
+      <c r="K42" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="V42" s="40"/>
+    </row>
+    <row r="43" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="E43" s="38"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="39"/>
+      <c r="K43" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="V43" s="40"/>
+    </row>
+    <row r="44" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="E44" s="38"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="39"/>
+      <c r="I44" s="39"/>
+      <c r="J44" s="39"/>
+      <c r="K44" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="12"/>
+      <c r="T44" s="12"/>
+      <c r="U44" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="V44" s="40"/>
+    </row>
+    <row r="45" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="E45" s="38"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="39"/>
+      <c r="K45" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="12"/>
+      <c r="S45" s="12"/>
+      <c r="T45" s="12"/>
+      <c r="U45" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="V45" s="44"/>
+    </row>
+    <row r="46" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="E46" s="38"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="39"/>
+      <c r="K46" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="12"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="12"/>
+      <c r="R46" s="12"/>
+      <c r="S46" s="12"/>
+      <c r="T46" s="12"/>
+      <c r="U46" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="V46" s="44"/>
+    </row>
+    <row r="47" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="E47" s="38"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="39"/>
+      <c r="K47" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="12"/>
+      <c r="S47" s="12"/>
+      <c r="T47" s="12"/>
+      <c r="U47" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="V47" s="40"/>
+    </row>
+    <row r="48" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="E48" s="38"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="39"/>
+      <c r="K48" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L48" s="46"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="12"/>
+      <c r="O48" s="12"/>
+      <c r="P48" s="12"/>
+      <c r="Q48" s="12"/>
+      <c r="R48" s="12"/>
+      <c r="S48" s="12"/>
+      <c r="T48" s="12"/>
+      <c r="U48" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="V48" s="40"/>
+    </row>
+    <row r="49" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="E49" s="38"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="39"/>
+      <c r="K49" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="12"/>
+      <c r="P49" s="12"/>
+      <c r="Q49" s="12"/>
+      <c r="R49" s="12"/>
+      <c r="S49" s="12"/>
+      <c r="T49" s="12"/>
+      <c r="U49" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="V49" s="40"/>
+    </row>
+    <row r="50" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="E50" s="38"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="39"/>
+      <c r="K50" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="12"/>
+      <c r="O50" s="12"/>
+      <c r="P50" s="12"/>
+      <c r="Q50" s="12"/>
+      <c r="R50" s="12"/>
+      <c r="S50" s="12"/>
+      <c r="T50" s="12"/>
+      <c r="U50" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="V50" s="40"/>
+    </row>
+    <row r="51" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="E51" s="38"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="39"/>
+      <c r="I51" s="39"/>
+      <c r="J51" s="39"/>
+      <c r="K51" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="L51" s="12"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="12"/>
+      <c r="O51" s="12"/>
+      <c r="P51" s="12"/>
+      <c r="Q51" s="12"/>
+      <c r="R51" s="12"/>
+      <c r="S51" s="12"/>
+      <c r="T51" s="12"/>
+      <c r="U51" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="V51" s="40"/>
+    </row>
+    <row r="52" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="E52" s="38"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="39"/>
+      <c r="J52" s="39"/>
+      <c r="K52" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="L52" s="46"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="12"/>
+      <c r="O52" s="12"/>
+      <c r="P52" s="12"/>
+      <c r="Q52" s="12"/>
+      <c r="R52" s="12"/>
+      <c r="S52" s="12"/>
+      <c r="T52" s="12"/>
+      <c r="U52" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="V52" s="40"/>
+    </row>
+    <row r="53" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="E53" s="41"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="42"/>
+      <c r="H53" s="42"/>
+      <c r="I53" s="42"/>
+      <c r="J53" s="42"/>
+      <c r="K53" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="L53" s="47"/>
+      <c r="M53" s="48"/>
+      <c r="N53" s="48"/>
+      <c r="O53" s="48"/>
+      <c r="P53" s="48"/>
+      <c r="Q53" s="48"/>
+      <c r="R53" s="48"/>
+      <c r="S53" s="48"/>
+      <c r="T53" s="48"/>
+      <c r="U53" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="V53" s="43"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/仕様開発メモ.xlsx
+++ b/仕様開発メモ.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\マイドライブ\Arduino_RaspberryPi\開発\棚ピカリ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\マイドライブ\Arduino_RaspberryPi\開発\08_棚ピカリ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833EFD83-502C-4D50-B83C-AC4B2CFBAADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CF3FBD-4E6A-4A43-A4A2-2EE07DADF5F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{85175235-26BD-44F4-A921-1B7BFB0E4D4E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="7">
   <si>
     <t>送信側のプログラム</t>
     <rPh sb="0" eb="3">
@@ -49,111 +49,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>上</t>
-    <rPh sb="0" eb="1">
-      <t>ウエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>下</t>
-    <rPh sb="0" eb="1">
-      <t>シタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5V</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>GND</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>●</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LED OUT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>電源　IN</t>
-    <rPh sb="0" eb="2">
-      <t>デンゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>信号(緑)</t>
-    <rPh sb="0" eb="2">
-      <t>シンゴウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ミドリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GND(白)</t>
-    <rPh sb="4" eb="5">
-      <t>シロ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5V(赤)</t>
-    <rPh sb="3" eb="4">
-      <t>アカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GND(黒)</t>
-    <rPh sb="4" eb="5">
-      <t>クロ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://www.m5stack.com/</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>左はM5Stack用プロトモジュール</t>
-    <rPh sb="0" eb="1">
-      <t>ヒダリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://www.switch-science.com/catalog/3650/</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://www.switch-science.com/catalog/3647/</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>m5stackにスタックしてコネクタ接続</t>
-    <rPh sb="18" eb="20">
-      <t>セツゾク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5ｍ程度</t>
-    <rPh sb="2" eb="4">
-      <t>テイド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2ｍ程度</t>
-    <rPh sb="2" eb="4">
-      <t>テイド</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -166,12 +66,16 @@
   <si>
     <t>●</t>
   </si>
+  <si>
+    <t>VIN</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,69 +90,7 @@
       <charset val="128"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF00B050"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Meiryo UI"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
       <color theme="1"/>
       <name val="Meiryo UI"/>
       <family val="3"/>
@@ -275,118 +117,20 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -470,165 +214,71 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6823,1715 +6473,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>7</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>14269</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>107950</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="直線コネクタ 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47D3278F-3B20-4CFF-AF59-7C538B77338A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1619250" y="650875"/>
-          <a:ext cx="1951038" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="31750"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="直線コネクタ 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37E00871-0854-4793-9600-B28775916EEF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3556000" y="863600"/>
-          <a:ext cx="2476500" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>26985</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>223835</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="楕円 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{473DA6B3-9FDD-431F-8B74-6C4CCF90817B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3994148" y="536575"/>
-          <a:ext cx="196850" cy="565150"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:alpha val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>93662</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>73025</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>93662</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="直線コネクタ 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5C85340-6911-4979-AF70-1F84DC860AC2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1609725" y="1436687"/>
-          <a:ext cx="1925638" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="31750"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>96838</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>96838</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="直線コネクタ 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7625424-3C49-4D6C-9045-D9C588B8EF62}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1590675" y="1249363"/>
-          <a:ext cx="1695450" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="31750"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>138112</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="直線コネクタ 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E26EE068-D089-4DAD-BC52-67151B403FBE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3071813" y="688975"/>
-          <a:ext cx="1033462" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>107950</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>107950</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="直線コネクタ 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37C7AFFE-A5FA-43A8-B498-030C9E0EB7A8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3065463" y="695325"/>
-          <a:ext cx="0" cy="990600"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>147638</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>96840</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>77788</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>96840</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="直線コネクタ 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB8E8F3D-F91A-43E0-B248-7BA6132646B5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1614488" y="1630365"/>
-          <a:ext cx="1925638" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="31750"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>115893</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>115893</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="直線コネクタ 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4129740-475F-4275-8F9D-AA8C98BAFB9B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3578231" y="854075"/>
-          <a:ext cx="0" cy="212725"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>114301</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>126998</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>133354</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>233370</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="41" name="コネクタ: カギ線 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7994B64-A4F9-419F-A49B-9878DD356FF9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="5091114" y="3375023"/>
-          <a:ext cx="1281115" cy="158752"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -1673"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="28575"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>404813</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>163512</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>490537</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>138113</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="吹き出し: 折線 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B64926D7-0031-44C4-B1FF-917C05FB2166}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1138238" y="2459037"/>
-          <a:ext cx="1552574" cy="736601"/>
-        </a:xfrm>
-        <a:prstGeom prst="borderCallout2">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 36908"/>
-            <a:gd name="adj2" fmla="val 102885"/>
-            <a:gd name="adj3" fmla="val 35794"/>
-            <a:gd name="adj4" fmla="val 127040"/>
-            <a:gd name="adj5" fmla="val -70636"/>
-            <a:gd name="adj6" fmla="val 166996"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>LED</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>に供給されるラインは軟銅線を太く</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Φ0.6mm</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>最大</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>5A)</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>96837</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>96837</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="64" name="直線コネクタ 63">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B092CBDC-C529-43F4-8B19-59E1A694E3A8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1600200" y="868362"/>
-          <a:ext cx="1951038" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="31750"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>119062</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>14287</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="66" name="直線コネクタ 65">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41310FA9-A1EC-447C-A41F-1485D5D64FBC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4314825" y="2200275"/>
-          <a:ext cx="2419350" cy="1136650"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>304799</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>95248</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="78" name="吹き出し: 折線 77">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5C9275E-5AEB-4150-B1C5-0FBB67059A3E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7781924" y="3890963"/>
-          <a:ext cx="1257299" cy="500061"/>
-        </a:xfrm>
-        <a:prstGeom prst="borderCallout2">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 52202"/>
-            <a:gd name="adj2" fmla="val -8100"/>
-            <a:gd name="adj3" fmla="val 51690"/>
-            <a:gd name="adj4" fmla="val -48228"/>
-            <a:gd name="adj5" fmla="val 21607"/>
-            <a:gd name="adj6" fmla="val -65547"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>AWG26</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>以上で</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>OK</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　黒</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>357190</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="88" name="吹き出し: 折線 87">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60EEBE4C-616D-4D17-AACB-C9647C0796D8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="790575" y="3362325"/>
-          <a:ext cx="1766890" cy="952499"/>
-        </a:xfrm>
-        <a:prstGeom prst="borderCallout2">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 36908"/>
-            <a:gd name="adj2" fmla="val 102885"/>
-            <a:gd name="adj3" fmla="val 30261"/>
-            <a:gd name="adj4" fmla="val 135129"/>
-            <a:gd name="adj5" fmla="val -95234"/>
-            <a:gd name="adj6" fmla="val 198231"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>マイコンは</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>200mA</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>程度なので</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>軟銅線の太さは</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Φ0.4mm(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>最大</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>2.2A)</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>以上であれば</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>OK</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>128587</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>106363</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="123" name="直線コネクタ 122">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42AE3A59-C2EB-433F-8788-46898B4065C8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4324350" y="2409825"/>
-          <a:ext cx="1492251" cy="1895475"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>95249</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="テキスト ボックス 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D04AD87F-D525-4BFE-AF46-B608A7E9CE8A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1609724" y="2133599"/>
-          <a:ext cx="685800" cy="209550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>コネクタ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>92075</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>119062</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="71" name="直線コネクタ 70">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62CAD21F-868D-4DDC-A2A2-D59ACB137C4D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3276600" y="1054100"/>
-          <a:ext cx="304800" cy="203200"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="31750"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>685801</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>142876</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>4763</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EB9BA79-A5DA-4E06-841B-F67C03298BB0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2152651" y="1171576"/>
-          <a:ext cx="190500" cy="557212"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>204787</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>90489</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>671515</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>147640</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="74" name="吹き出し: 折線 73">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F8AB95A-F081-46A7-B578-CA65D627CF4C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="204787" y="471489"/>
-          <a:ext cx="1933578" cy="638176"/>
-        </a:xfrm>
-        <a:prstGeom prst="borderCallout2">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 36908"/>
-            <a:gd name="adj2" fmla="val 102885"/>
-            <a:gd name="adj3" fmla="val 37238"/>
-            <a:gd name="adj4" fmla="val 116153"/>
-            <a:gd name="adj5" fmla="val 148749"/>
-            <a:gd name="adj6" fmla="val 133014"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
-            <a:t>AWG20(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
-            <a:t>最大</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
-            <a:t>11A)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
-            <a:t>ノイズを防ぐためツイストもしくは接続平行線を使う</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>681039</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="76" name="テキスト ボックス 75">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17BB4C22-63B9-48F1-AE41-93E05D6844E6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2147889" y="514349"/>
-          <a:ext cx="804862" cy="481013"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ケースから</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>400mm</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>57152</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>219074</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="79" name="テキスト ボックス 78">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2BA70D8-AD94-4823-A049-24638CD5F238}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2286000" y="1971677"/>
-          <a:ext cx="866774" cy="471485"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ケースから</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>70mm</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>652463</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9CD64AA-45B1-45C4-A43E-976F1CFAB262}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="7210425" y="714375"/>
-          <a:ext cx="919163" cy="338138"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>685801</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>142876</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="80" name="正方形/長方形 79">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{162E4BEA-9AD5-40DA-8DCE-DDCFB32CD372}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2152651" y="990601"/>
-          <a:ext cx="190500" cy="371474"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>42862</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>109538</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="81" name="テキスト ボックス 80">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F0175B2-99A3-40D9-BB57-E14B2AF76BD1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4948238" y="781050"/>
-          <a:ext cx="804862" cy="481013"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>キャパシタ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>〇〇</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>μF</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>28573</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>104774</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>119061</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="83" name="吹き出し: 折線 82">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4C36F0D-BC3C-4DD4-A8DE-918A155297AE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3719511" y="381000"/>
-          <a:ext cx="1085851" cy="500061"/>
-        </a:xfrm>
-        <a:prstGeom prst="borderCallout2">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 52202"/>
-            <a:gd name="adj2" fmla="val -8100"/>
-            <a:gd name="adj3" fmla="val 53595"/>
-            <a:gd name="adj4" fmla="val -27614"/>
-            <a:gd name="adj5" fmla="val 192084"/>
-            <a:gd name="adj6" fmla="val -71209"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ルータで穴あけ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>加工</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>252411</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>233362</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:rowOff>185719</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -8546,8 +6497,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4448174" y="6129337"/>
-          <a:ext cx="2757488" cy="3981450"/>
+          <a:off x="4686307" y="395269"/>
+          <a:ext cx="2747963" cy="3981450"/>
           <a:chOff x="4710113" y="6124575"/>
           <a:chExt cx="2757488" cy="3981450"/>
         </a:xfrm>
@@ -8787,23 +6738,298 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="87" name="直線コネクタ 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20BAC2D3-7920-4342-B112-70D6A5A5DACD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3028950" y="4314826"/>
+          <a:ext cx="0" cy="1576387"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>109536</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95255</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>109536</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="89" name="直線コネクタ 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9CF2120-12B9-4C16-B831-FD5054996089}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3295649" y="4095755"/>
+          <a:ext cx="0" cy="1785933"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="90" name="直線コネクタ 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E9B52BA-5A08-4D7F-835B-01E20774A87A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4057649" y="9424988"/>
+          <a:ext cx="0" cy="1376361"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>100709</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>109539</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="91" name="直線コネクタ 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62C9FDAB-99E5-4B6E-921C-2132C1CCB0A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3791647" y="9253538"/>
+          <a:ext cx="8830" cy="1476375"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="92" name="直線コネクタ 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{793C2D95-BBD1-402B-B094-94E536FF8184}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3543300" y="9667876"/>
+          <a:ext cx="0" cy="1119187"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>157136</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>114298</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>61886</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>90486</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="楕円 9">
+        <xdr:cNvPr id="48" name="楕円 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91604E22-E345-4F0F-B3C8-C0A711570F58}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{989F52A2-2C96-44B8-9455-A82B8FC3700D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8811,7 +7037,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4857724" y="9658348"/>
+          <a:off x="4857724" y="9277348"/>
           <a:ext cx="157162" cy="166688"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -8847,23 +7073,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>161899</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>114298</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>66648</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>90486</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="86" name="楕円 85">
+        <xdr:cNvPr id="49" name="楕円 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{799CD9EF-50F6-4789-84E8-6075E1CDAE5A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B44D4482-932C-45A9-A1F8-4F8D1157873F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8871,7 +7097,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6629374" y="9658348"/>
+          <a:off x="6629374" y="9277348"/>
           <a:ext cx="157162" cy="166688"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -8907,23 +7133,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>128588</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>90488</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>138112</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>80962</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="87" name="直線コネクタ 86">
+        <xdr:cNvPr id="14" name="直線コネクタ 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20BAC2D3-7920-4342-B112-70D6A5A5DACD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CE09D58-0DF4-4EBC-AC47-3229AEC8E605}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8931,13 +7157,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3067050" y="7005638"/>
-          <a:ext cx="4762" cy="2105024"/>
+          <a:off x="4538663" y="8682038"/>
+          <a:ext cx="242887" cy="4761"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="31750"/>
+        <a:ln w="12700"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -8958,23 +7184,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>119062</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>128588</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="89" name="直線コネクタ 88">
+        <xdr:cNvPr id="52" name="直線コネクタ 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9CF2120-12B9-4C16-B831-FD5054996089}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61B708C8-DF11-48CC-89E5-6C45F791145A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8982,64 +7208,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3305175" y="7005638"/>
-          <a:ext cx="4762" cy="2105024"/>
+          <a:off x="3057526" y="9644063"/>
+          <a:ext cx="1776412" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="31750"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>109538</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>128588</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="90" name="直線コネクタ 89">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E9B52BA-5A08-4D7F-835B-01E20774A87A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3548063" y="7005638"/>
-          <a:ext cx="4762" cy="2105024"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="31750"/>
+        <a:ln w="12700"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -9061,36 +7236,36 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>128588</xdr:rowOff>
+      <xdr:colOff>128587</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>109538</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>109537</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="91" name="直線コネクタ 90">
+        <xdr:cNvPr id="58" name="直線コネクタ 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62C9FDAB-99E5-4B6E-921C-2132C1CCB0A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E165E916-E9EB-4F7E-89B3-82C9AA5E87C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3795713" y="7005638"/>
-          <a:ext cx="4762" cy="2105024"/>
+        <a:xfrm flipV="1">
+          <a:off x="3819525" y="7558088"/>
+          <a:ext cx="985838" cy="785812"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="31750"/>
+        <a:ln w="12700"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -9111,87 +7286,48 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>128588</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>690563</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>128588</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="92" name="直線コネクタ 91">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{793C2D95-BBD1-402B-B094-94E536FF8184}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4067176" y="7005638"/>
-          <a:ext cx="4762" cy="2105024"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="31750"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>83345</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>126207</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>135732</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>126207</xdr:rowOff>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="93" name="正方形/長方形 92">
+        <xdr:cNvPr id="17" name="楕円 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C556595C-8409-420C-B20F-A491AE53237F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73EEFA8E-4281-4CC6-9DAD-8D51E0373C3F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="3705226" y="6629401"/>
-          <a:ext cx="190500" cy="557212"/>
+        <a:xfrm>
+          <a:off x="2890838" y="8763001"/>
+          <a:ext cx="566738" cy="571500"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+            <a:alpha val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -9222,32 +7358,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>66676</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>133352</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>185737</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>133352</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>166688</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="94" name="正方形/長方形 93">
+        <xdr:cNvPr id="32" name="正方形/長方形 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ED74F40-F6D7-4204-859D-96022153452C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC39A029-BEFD-463B-B9C7-9DD637A11544}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="3090863" y="6729415"/>
-          <a:ext cx="190500" cy="371474"/>
+        <a:xfrm>
+          <a:off x="3514726" y="5362576"/>
+          <a:ext cx="595312" cy="166687"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9278,6 +7414,640 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304803</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>123827</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="テキスト ボックス 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35B62018-3E3F-4C78-844F-EDA9F781395E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2505078" y="8424862"/>
+          <a:ext cx="804862" cy="481013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>キャパシタ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>220μF</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>576265</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142877</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="テキスト ボックス 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBD79246-CE13-40D3-A976-A87068AB838F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2776540" y="5948362"/>
+          <a:ext cx="804862" cy="481013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>被覆</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>11mm</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>除去</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>214312</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>52388</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="テキスト ボックス 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE217656-3F5F-4A20-8D6E-82A295CA0E17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2414587" y="4943475"/>
+          <a:ext cx="566739" cy="252413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>AWG20</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>338138</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>100012</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="吹き出し: 折線 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36BB17ED-50B4-4B21-B8DF-6ABB28842E34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1071563" y="8872537"/>
+          <a:ext cx="1228724" cy="528638"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 81520"/>
+            <a:gd name="adj2" fmla="val 101658"/>
+            <a:gd name="adj3" fmla="val 81699"/>
+            <a:gd name="adj4" fmla="val 127653"/>
+            <a:gd name="adj5" fmla="val 118804"/>
+            <a:gd name="adj6" fmla="val 154726"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>軟銅線</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Φ0.6mm</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>最大</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>5A)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>128586</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="直線コネクタ 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46070C9E-FD1E-4145-901D-CB14768E3E8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3038476" y="9101136"/>
+          <a:ext cx="0" cy="519115"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>119063</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="直線コネクタ 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BBC7812-D0D8-42C3-B464-A6250A4DCA2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3290888" y="9448801"/>
+          <a:ext cx="771525" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>100011</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="73" name="直線コネクタ 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F72F444-AF5D-4DEE-91A2-9AF9735F8C5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3281363" y="9072561"/>
+          <a:ext cx="0" cy="395289"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>138113</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="82" name="直線コネクタ 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66A77EAE-93B1-4D2E-8684-5EF7A99E77FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4057650" y="8686800"/>
+          <a:ext cx="485775" cy="423863"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>109536</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="85" name="直線コネクタ 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CFF67AB-CC11-4460-A7E6-3AC6BD1FD07A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4057651" y="9082086"/>
+          <a:ext cx="0" cy="395289"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="86" name="直線コネクタ 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE1D69D4-6335-46E1-9AA7-A7DC5134A5DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3805238" y="8324850"/>
+          <a:ext cx="0" cy="938213"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -19334,37 +18104,37 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
   <cols>
     <col min="1" max="21" width="8.7265625" customWidth="1"/>
     <col min="22" max="16384" width="8.7265625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" x14ac:dyDescent="0.3"/>
-    <row r="2" x14ac:dyDescent="0.3"/>
-    <row r="3" x14ac:dyDescent="0.3"/>
-    <row r="4" x14ac:dyDescent="0.3"/>
-    <row r="5" x14ac:dyDescent="0.3"/>
-    <row r="6" x14ac:dyDescent="0.3"/>
-    <row r="7" x14ac:dyDescent="0.3"/>
-    <row r="8" x14ac:dyDescent="0.3"/>
-    <row r="9" x14ac:dyDescent="0.3"/>
-    <row r="10" x14ac:dyDescent="0.3"/>
-    <row r="11" x14ac:dyDescent="0.3"/>
-    <row r="12" x14ac:dyDescent="0.3"/>
-    <row r="13" x14ac:dyDescent="0.3"/>
-    <row r="14" x14ac:dyDescent="0.3"/>
-    <row r="15" x14ac:dyDescent="0.3"/>
-    <row r="16" x14ac:dyDescent="0.3"/>
-    <row r="17" x14ac:dyDescent="0.3"/>
-    <row r="18" x14ac:dyDescent="0.3"/>
-    <row r="19" x14ac:dyDescent="0.3"/>
-    <row r="20" x14ac:dyDescent="0.3"/>
-    <row r="21" x14ac:dyDescent="0.3"/>
-    <row r="22" x14ac:dyDescent="0.3"/>
-    <row r="23" x14ac:dyDescent="0.3"/>
-    <row r="24" x14ac:dyDescent="0.3"/>
-    <row r="25" x14ac:dyDescent="0.3"/>
+    <row r="1"/>
+    <row r="2"/>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5"/>
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10"/>
+    <row r="11"/>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16"/>
+    <row r="17"/>
+    <row r="18"/>
+    <row r="19"/>
+    <row r="20"/>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23"/>
+    <row r="24"/>
+    <row r="25"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19380,7 +18150,7 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="19" width="8.7265625" customWidth="1"/>
     <col min="20" max="16384" width="8.7265625" hidden="1"/>
@@ -19394,1111 +18164,606 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23F53282-8A9B-45B2-ACCD-40F8FEBA7EF3}">
-  <dimension ref="A2:X53"/>
+  <dimension ref="A2:W25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="8.7265625" style="2"/>
-    <col min="5" max="22" width="3" style="2" customWidth="1"/>
-    <col min="23" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="4" width="8.7265625" style="1"/>
+    <col min="5" max="22" width="3" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>17</v>
+    <row r="2" spans="1:22">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="5"/>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="8"/>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="8"/>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M5" s="2" t="s">
+    <row r="6" spans="1:22">
+      <c r="E6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="E11" s="6"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="E12" s="6"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="E6" s="3"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="8"/>
-      <c r="X6" s="2" t="s">
-        <v>17</v>
+      <c r="M12" s="18">
+        <v>33</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="E7" s="9"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="14"/>
-      <c r="X7" s="15" t="s">
-        <v>13</v>
+    <row r="13" spans="1:22">
+      <c r="E13" s="6"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
+    <row r="14" spans="1:22">
+      <c r="E14" s="6"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2" t="s">
+        <v>1</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>12</v>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2" t="s">
+        <v>1</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>19</v>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="E15" s="6"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2" t="s">
+        <v>1</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12" t="s">
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="E16" s="6"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="4:23">
+      <c r="E17" s="6"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="4:23">
+      <c r="E18" s="6"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="4:23">
+      <c r="D19" s="8"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="4:23">
+      <c r="D20" s="8"/>
+      <c r="E20" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="4:23">
+      <c r="D21" s="8"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="4:23">
+      <c r="E22" s="6"/>
+      <c r="F22" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M22" s="13"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="4:23">
+      <c r="E23" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="27" t="s">
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="U8" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="V8" s="17"/>
-      <c r="W8" s="26"/>
-      <c r="X8" s="1" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="U9" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="V9" s="17"/>
+    <row r="24" spans="4:23">
+      <c r="E24" s="6"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="6"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="E10" s="16"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="U10" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="V10" s="17"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="U11" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="V11" s="17"/>
-      <c r="X11" s="25" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="U12" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="V12" s="17"/>
-      <c r="X12" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="U13" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="V13" s="17"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="E14" s="16"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="U14" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="V14" s="17"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="E15" s="16"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="U15" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="V15" s="17"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="E16" s="16"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="U16" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="V16" s="17"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="E17" s="16"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="U17" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="V17" s="17"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="E18" s="16"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="32">
-        <v>26</v>
-      </c>
-      <c r="U18" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="V18" s="17"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="E19" s="16"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="U19" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="V19" s="17"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="E20" s="16"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="U20" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="V20" s="17"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="E21" s="16"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="U21" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="V21" s="17"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="E22" s="16"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="U22" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="V22" s="17"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="E23" s="9"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="18"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="14"/>
-    </row>
-    <row r="24" spans="1:22" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E24" s="19"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="22"/>
-      <c r="S24" s="20"/>
-      <c r="T24" s="20"/>
-      <c r="U24" s="23"/>
-      <c r="V24" s="24"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="M25" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30" s="35"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="36"/>
-      <c r="O30" s="36"/>
-      <c r="P30" s="36"/>
-      <c r="Q30" s="36"/>
-      <c r="R30" s="36"/>
-      <c r="S30" s="36"/>
-      <c r="T30" s="36"/>
-      <c r="U30" s="36"/>
-      <c r="V30" s="37"/>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="E31" s="38"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="39"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="39"/>
-      <c r="Q31" s="39"/>
-      <c r="R31" s="39"/>
-      <c r="S31" s="39"/>
-      <c r="T31" s="39"/>
-      <c r="U31" s="39"/>
-      <c r="V31" s="40"/>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="E32" s="38"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="39"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="39"/>
-      <c r="Q32" s="39"/>
-      <c r="R32" s="39"/>
-      <c r="S32" s="39"/>
-      <c r="T32" s="39"/>
-      <c r="U32" s="39"/>
-      <c r="V32" s="40"/>
-    </row>
-    <row r="33" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E33" s="38"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="39"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="39"/>
-      <c r="Q33" s="39"/>
-      <c r="R33" s="39"/>
-      <c r="S33" s="39"/>
-      <c r="T33" s="39"/>
-      <c r="U33" s="39"/>
-      <c r="V33" s="40"/>
-    </row>
-    <row r="34" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E34" s="38"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="39"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="39"/>
-      <c r="N34" s="39"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="39"/>
-      <c r="Q34" s="39"/>
-      <c r="R34" s="39"/>
-      <c r="S34" s="39"/>
-      <c r="T34" s="39"/>
-      <c r="U34" s="39"/>
-      <c r="V34" s="40"/>
-    </row>
-    <row r="35" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E35" s="38"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="39"/>
-      <c r="K35" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="12"/>
-      <c r="R35" s="12"/>
-      <c r="S35" s="12"/>
-      <c r="T35" s="12"/>
-      <c r="U35" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="V35" s="40"/>
-    </row>
-    <row r="36" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E36" s="38"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="39"/>
-      <c r="K36" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="12"/>
-      <c r="R36" s="12"/>
-      <c r="S36" s="12"/>
-      <c r="T36" s="12"/>
-      <c r="U36" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="V36" s="40"/>
-    </row>
-    <row r="37" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E37" s="38"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="39"/>
-      <c r="K37" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="12"/>
-      <c r="R37" s="12"/>
-      <c r="S37" s="12"/>
-      <c r="T37" s="12"/>
-      <c r="U37" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="V37" s="40"/>
-    </row>
-    <row r="38" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E38" s="38"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="39"/>
-      <c r="J38" s="39"/>
-      <c r="K38" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="12"/>
-      <c r="Q38" s="12"/>
-      <c r="R38" s="12"/>
-      <c r="S38" s="12"/>
-      <c r="T38" s="12"/>
-      <c r="U38" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="V38" s="40"/>
-    </row>
-    <row r="39" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E39" s="38"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="39"/>
-      <c r="J39" s="39"/>
-      <c r="K39" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="12"/>
-      <c r="P39" s="12"/>
-      <c r="Q39" s="12"/>
-      <c r="R39" s="12"/>
-      <c r="S39" s="12"/>
-      <c r="T39" s="12"/>
-      <c r="U39" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="V39" s="40"/>
-    </row>
-    <row r="40" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E40" s="38"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="39"/>
-      <c r="K40" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
-      <c r="O40" s="12"/>
-      <c r="P40" s="12"/>
-      <c r="Q40" s="12"/>
-      <c r="R40" s="12"/>
-      <c r="S40" s="12"/>
-      <c r="T40" s="12"/>
-      <c r="U40" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="V40" s="40"/>
-    </row>
-    <row r="41" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E41" s="38"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="39"/>
-      <c r="J41" s="39"/>
-      <c r="K41" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="L41" s="12"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="12"/>
-      <c r="O41" s="12"/>
-      <c r="P41" s="12"/>
-      <c r="Q41" s="12"/>
-      <c r="R41" s="12"/>
-      <c r="S41" s="12"/>
-      <c r="T41" s="12"/>
-      <c r="U41" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="V41" s="40"/>
-    </row>
-    <row r="42" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E42" s="38"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="39"/>
-      <c r="J42" s="39"/>
-      <c r="K42" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="L42" s="12"/>
-      <c r="M42" s="12"/>
-      <c r="N42" s="12"/>
-      <c r="O42" s="12"/>
-      <c r="P42" s="12"/>
-      <c r="Q42" s="12"/>
-      <c r="R42" s="12"/>
-      <c r="S42" s="12"/>
-      <c r="T42" s="12"/>
-      <c r="U42" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="V42" s="40"/>
-    </row>
-    <row r="43" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E43" s="38"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="39"/>
-      <c r="I43" s="39"/>
-      <c r="J43" s="39"/>
-      <c r="K43" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="L43" s="12"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="12"/>
-      <c r="O43" s="12"/>
-      <c r="P43" s="12"/>
-      <c r="Q43" s="12"/>
-      <c r="R43" s="12"/>
-      <c r="S43" s="12"/>
-      <c r="T43" s="12"/>
-      <c r="U43" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="V43" s="40"/>
-    </row>
-    <row r="44" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E44" s="38"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="39"/>
-      <c r="I44" s="39"/>
-      <c r="J44" s="39"/>
-      <c r="K44" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="L44" s="12"/>
-      <c r="M44" s="12"/>
-      <c r="N44" s="12"/>
-      <c r="O44" s="12"/>
-      <c r="P44" s="12"/>
-      <c r="Q44" s="12"/>
-      <c r="R44" s="12"/>
-      <c r="S44" s="12"/>
-      <c r="T44" s="12"/>
-      <c r="U44" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="V44" s="40"/>
-    </row>
-    <row r="45" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E45" s="38"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="39"/>
-      <c r="J45" s="39"/>
-      <c r="K45" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="L45" s="12"/>
-      <c r="M45" s="12"/>
-      <c r="N45" s="12"/>
-      <c r="O45" s="12"/>
-      <c r="P45" s="12"/>
-      <c r="Q45" s="12"/>
-      <c r="R45" s="12"/>
-      <c r="S45" s="12"/>
-      <c r="T45" s="12"/>
-      <c r="U45" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="V45" s="44"/>
-    </row>
-    <row r="46" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E46" s="38"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="39"/>
-      <c r="J46" s="39"/>
-      <c r="K46" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="L46" s="12"/>
-      <c r="M46" s="12"/>
-      <c r="N46" s="12"/>
-      <c r="O46" s="12"/>
-      <c r="P46" s="12"/>
-      <c r="Q46" s="12"/>
-      <c r="R46" s="12"/>
-      <c r="S46" s="12"/>
-      <c r="T46" s="12"/>
-      <c r="U46" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="V46" s="44"/>
-    </row>
-    <row r="47" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E47" s="38"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="39"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="39"/>
-      <c r="K47" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="L47" s="12"/>
-      <c r="M47" s="12"/>
-      <c r="N47" s="12"/>
-      <c r="O47" s="12"/>
-      <c r="P47" s="12"/>
-      <c r="Q47" s="12"/>
-      <c r="R47" s="12"/>
-      <c r="S47" s="12"/>
-      <c r="T47" s="12"/>
-      <c r="U47" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="V47" s="40"/>
-    </row>
-    <row r="48" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E48" s="38"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="39"/>
-      <c r="I48" s="39"/>
-      <c r="J48" s="39"/>
-      <c r="K48" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L48" s="46"/>
-      <c r="M48" s="12"/>
-      <c r="N48" s="12"/>
-      <c r="O48" s="12"/>
-      <c r="P48" s="12"/>
-      <c r="Q48" s="12"/>
-      <c r="R48" s="12"/>
-      <c r="S48" s="12"/>
-      <c r="T48" s="12"/>
-      <c r="U48" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="V48" s="40"/>
-    </row>
-    <row r="49" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E49" s="38"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="39"/>
-      <c r="I49" s="39"/>
-      <c r="J49" s="39"/>
-      <c r="K49" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="L49" s="12"/>
-      <c r="M49" s="12"/>
-      <c r="N49" s="12"/>
-      <c r="O49" s="12"/>
-      <c r="P49" s="12"/>
-      <c r="Q49" s="12"/>
-      <c r="R49" s="12"/>
-      <c r="S49" s="12"/>
-      <c r="T49" s="12"/>
-      <c r="U49" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="V49" s="40"/>
-    </row>
-    <row r="50" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E50" s="38"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="39"/>
-      <c r="J50" s="39"/>
-      <c r="K50" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="L50" s="12"/>
-      <c r="M50" s="12"/>
-      <c r="N50" s="12"/>
-      <c r="O50" s="12"/>
-      <c r="P50" s="12"/>
-      <c r="Q50" s="12"/>
-      <c r="R50" s="12"/>
-      <c r="S50" s="12"/>
-      <c r="T50" s="12"/>
-      <c r="U50" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="V50" s="40"/>
-    </row>
-    <row r="51" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E51" s="38"/>
-      <c r="F51" s="39"/>
-      <c r="G51" s="39"/>
-      <c r="H51" s="39"/>
-      <c r="I51" s="39"/>
-      <c r="J51" s="39"/>
-      <c r="K51" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="L51" s="12"/>
-      <c r="M51" s="12"/>
-      <c r="N51" s="12"/>
-      <c r="O51" s="12"/>
-      <c r="P51" s="12"/>
-      <c r="Q51" s="12"/>
-      <c r="R51" s="12"/>
-      <c r="S51" s="12"/>
-      <c r="T51" s="12"/>
-      <c r="U51" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="V51" s="40"/>
-    </row>
-    <row r="52" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E52" s="38"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="39"/>
-      <c r="I52" s="39"/>
-      <c r="J52" s="39"/>
-      <c r="K52" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="L52" s="46"/>
-      <c r="M52" s="12"/>
-      <c r="N52" s="12"/>
-      <c r="O52" s="12"/>
-      <c r="P52" s="12"/>
-      <c r="Q52" s="12"/>
-      <c r="R52" s="12"/>
-      <c r="S52" s="12"/>
-      <c r="T52" s="12"/>
-      <c r="U52" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="V52" s="40"/>
-    </row>
-    <row r="53" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E53" s="41"/>
-      <c r="F53" s="42"/>
-      <c r="G53" s="42"/>
-      <c r="H53" s="42"/>
-      <c r="I53" s="42"/>
-      <c r="J53" s="42"/>
-      <c r="K53" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="L53" s="47"/>
-      <c r="M53" s="48"/>
-      <c r="N53" s="48"/>
-      <c r="O53" s="48"/>
-      <c r="P53" s="48"/>
-      <c r="Q53" s="48"/>
-      <c r="R53" s="48"/>
-      <c r="S53" s="48"/>
-      <c r="T53" s="48"/>
-      <c r="U53" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="V53" s="43"/>
+    <row r="25" spans="4:23">
+      <c r="E25" s="9"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="X7" r:id="rId1" xr:uid="{75363AA8-FE4E-4AD4-A346-8A84EAD48D7A}"/>
-    <hyperlink ref="X12" r:id="rId2" xr:uid="{44E93EE6-EDB9-499D-9E70-48D0FD0F5815}"/>
-    <hyperlink ref="X8" r:id="rId3" xr:uid="{CF86257E-BCB1-4378-AAFE-9279293F1125}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-  <drawing r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -20510,58 +18775,58 @@
       <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
   <cols>
     <col min="1" max="1" width="5.81640625" customWidth="1"/>
     <col min="2" max="15" width="8.7265625" customWidth="1"/>
     <col min="16" max="16384" width="8.7265625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" x14ac:dyDescent="0.3"/>
-    <row r="2" x14ac:dyDescent="0.3"/>
-    <row r="3" x14ac:dyDescent="0.3"/>
-    <row r="4" x14ac:dyDescent="0.3"/>
-    <row r="5" x14ac:dyDescent="0.3"/>
-    <row r="6" x14ac:dyDescent="0.3"/>
-    <row r="7" x14ac:dyDescent="0.3"/>
-    <row r="8" x14ac:dyDescent="0.3"/>
-    <row r="9" x14ac:dyDescent="0.3"/>
-    <row r="10" x14ac:dyDescent="0.3"/>
-    <row r="11" x14ac:dyDescent="0.3"/>
-    <row r="12" x14ac:dyDescent="0.3"/>
-    <row r="13" x14ac:dyDescent="0.3"/>
-    <row r="14" x14ac:dyDescent="0.3"/>
-    <row r="15" x14ac:dyDescent="0.3"/>
-    <row r="16" x14ac:dyDescent="0.3"/>
-    <row r="17" x14ac:dyDescent="0.3"/>
-    <row r="18" x14ac:dyDescent="0.3"/>
-    <row r="19" x14ac:dyDescent="0.3"/>
-    <row r="20" x14ac:dyDescent="0.3"/>
-    <row r="21" x14ac:dyDescent="0.3"/>
-    <row r="22" x14ac:dyDescent="0.3"/>
-    <row r="23" x14ac:dyDescent="0.3"/>
-    <row r="24" x14ac:dyDescent="0.3"/>
-    <row r="25" x14ac:dyDescent="0.3"/>
-    <row r="26" x14ac:dyDescent="0.3"/>
-    <row r="27" x14ac:dyDescent="0.3"/>
-    <row r="28" x14ac:dyDescent="0.3"/>
-    <row r="29" x14ac:dyDescent="0.3"/>
-    <row r="30" x14ac:dyDescent="0.3"/>
-    <row r="31" x14ac:dyDescent="0.3"/>
-    <row r="32" x14ac:dyDescent="0.3"/>
-    <row r="33" x14ac:dyDescent="0.3"/>
-    <row r="34" x14ac:dyDescent="0.3"/>
-    <row r="35" x14ac:dyDescent="0.3"/>
-    <row r="36" x14ac:dyDescent="0.3"/>
-    <row r="37" x14ac:dyDescent="0.3"/>
-    <row r="38" x14ac:dyDescent="0.3"/>
-    <row r="39" x14ac:dyDescent="0.3"/>
-    <row r="40" x14ac:dyDescent="0.3"/>
-    <row r="41" x14ac:dyDescent="0.3"/>
-    <row r="42" x14ac:dyDescent="0.3"/>
-    <row r="43" x14ac:dyDescent="0.3"/>
-    <row r="44" x14ac:dyDescent="0.3"/>
-    <row r="45" x14ac:dyDescent="0.3"/>
+    <row r="1"/>
+    <row r="2"/>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5"/>
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10"/>
+    <row r="11"/>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16"/>
+    <row r="17"/>
+    <row r="18"/>
+    <row r="19"/>
+    <row r="20"/>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23"/>
+    <row r="24"/>
+    <row r="25"/>
+    <row r="26"/>
+    <row r="27"/>
+    <row r="28"/>
+    <row r="29"/>
+    <row r="30"/>
+    <row r="31"/>
+    <row r="32"/>
+    <row r="33"/>
+    <row r="34"/>
+    <row r="35"/>
+    <row r="36"/>
+    <row r="37"/>
+    <row r="38"/>
+    <row r="39"/>
+    <row r="40"/>
+    <row r="41"/>
+    <row r="42"/>
+    <row r="43"/>
+    <row r="44"/>
+    <row r="45"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20577,9 +18842,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>

--- a/仕様開発メモ.xlsx
+++ b/仕様開発メモ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\マイドライブ\Arduino_RaspberryPi\開発\08_棚ピカリ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CF3FBD-4E6A-4A43-A4A2-2EE07DADF5F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62335D59-6208-4E62-BCBB-772E995EBCBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{85175235-26BD-44F4-A921-1B7BFB0E4D4E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="4" xr2:uid="{85175235-26BD-44F4-A921-1B7BFB0E4D4E}"/>
   </bookViews>
   <sheets>
     <sheet name="データの流れ" sheetId="4" r:id="rId1"/>
@@ -10762,85 +10762,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>694266</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>71120</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>316653</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>116840</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="フローチャート: 端子 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84E28981-F2FA-4E13-96F8-47A41E4FE264}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2157306" y="14549120"/>
-          <a:ext cx="1085427" cy="426720"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartTerminator">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>終了</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>320040</xdr:colOff>
       <xdr:row>37</xdr:row>
@@ -14003,7 +13924,7 @@
           <a:solidFill>
             <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
-          <a:headEnd type="triangle"/>
+          <a:headEnd type="none"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -17778,6 +17699,68 @@
           <a:solidFill>
             <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>161607</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>109220</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="108" name="コネクタ: カギ線 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{290B8BD5-3247-40CA-94DE-D66B34E04E5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="191" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="6784181" y="11732419"/>
+          <a:ext cx="3576320" cy="5181282"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -6392"/>
+            <a:gd name="adj2" fmla="val 55246"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -18098,6 +18081,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC9BE132-0351-48BB-93B2-896F2E3F1FA4}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -18144,6 +18128,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8675A9A-4AAE-46D2-916A-36F288EB7F5C}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:S1"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -18164,9 +18149,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23F53282-8A9B-45B2-ACCD-40F8FEBA7EF3}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:W25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -18769,6 +18755,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F643F38-C780-47EA-BFB6-6AD8F86571FC}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:O45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18836,10 +18823,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B0EFDE-DD4A-4069-924D-12F4F578AE0F}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
